--- a/12/1/1/Anual 1955 a 2020 - Anual.xlsx
+++ b/12/1/1/Anual 1955 a 2020 - Anual.xlsx
@@ -2641,7 +2641,7 @@
         <v>75</v>
       </c>
       <c r="B58">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C58">
         <v>1.3</v>
@@ -2700,7 +2700,7 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="C59">
         <v>1.4</v>
@@ -2818,7 +2818,7 @@
         <v>78</v>
       </c>
       <c r="B61">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="C61">
         <v>2.9</v>
@@ -2877,7 +2877,7 @@
         <v>79</v>
       </c>
       <c r="B62">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="C62">
         <v>2.4</v>
@@ -3060,7 +3060,7 @@
         <v>1.3</v>
       </c>
       <c r="D65">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E65">
         <v>1.9</v>
@@ -3119,13 +3119,13 @@
         <v>1.4</v>
       </c>
       <c r="D66">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>1.4</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G66">
         <v>6</v>
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O66">
         <v>-2</v>
@@ -3178,7 +3178,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="D67">
-        <v>-1.1</v>
+        <v>-4.7</v>
       </c>
       <c r="E67">
         <v>-6.4</v>

--- a/12/1/1/Anual 1955 a 2020 - Anual.xlsx
+++ b/12/1/1/Anual 1955 a 2020 - Anual.xlsx
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F66">
         <v>2.2</v>
@@ -3181,7 +3181,7 @@
         <v>-4.7</v>
       </c>
       <c r="E67">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="F67">
         <v>-0.9</v>

--- a/12/1/1/Anual 1955 a 2020 - Anual.xlsx
+++ b/12/1/1/Anual 1955 a 2020 - Anual.xlsx
@@ -3057,7 +3057,7 @@
         <v>2.9</v>
       </c>
       <c r="C65">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D65">
         <v>0.6</v>
@@ -3116,7 +3116,7 @@
         <v>2.3</v>
       </c>
       <c r="C66">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>-3.4</v>
       </c>
       <c r="C67">
-        <v>-9.800000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="D67">
         <v>-4.7</v>

--- a/12/1/1/Anual 1955 a 2020 - Anual.xlsx
+++ b/12/1/1/Anual 1955 a 2020 - Anual.xlsx
@@ -3181,7 +3181,7 @@
         <v>-4.7</v>
       </c>
       <c r="E67">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="F67">
         <v>-0.9</v>

--- a/12/1/1/Anual 1955 a 2020 - Anual.xlsx
+++ b/12/1/1/Anual 1955 a 2020 - Anual.xlsx
@@ -3063,7 +3063,7 @@
         <v>0.6</v>
       </c>
       <c r="E65">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F65">
         <v>2.9</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F66">
         <v>2.2</v>
@@ -3193,7 +3193,7 @@
         <v>-5.6</v>
       </c>
       <c r="I67">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="J67">
         <v>-5.7</v>
